--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb3-Rhbdl2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb3-Rhbdl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Efnb3</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,134 +519,134 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08736233333333332</v>
+        <v>0.071327</v>
       </c>
       <c r="H2">
-        <v>0.262087</v>
+        <v>0.213981</v>
       </c>
       <c r="I2">
-        <v>0.05767651158852534</v>
+        <v>0.1064107741026886</v>
       </c>
       <c r="J2">
-        <v>0.07409173752753134</v>
+        <v>0.1213845878939322</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.752090333333333</v>
+        <v>1.806704333333333</v>
       </c>
       <c r="N2">
-        <v>5.256271</v>
+        <v>5.420113000000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9475373327607437</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9644023730209256</v>
       </c>
       <c r="Q2">
-        <v>0.1530666997307777</v>
+        <v>0.1288667999836667</v>
       </c>
       <c r="R2">
-        <v>1.377600297577</v>
+        <v>1.159801199853</v>
       </c>
       <c r="S2">
-        <v>0.05767651158852534</v>
+        <v>0.1008281810702675</v>
       </c>
       <c r="T2">
-        <v>0.07409173752753134</v>
+        <v>0.1170635846130754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3509106666666666</v>
+        <v>0.071327</v>
       </c>
       <c r="H3">
-        <v>1.052732</v>
+        <v>0.213981</v>
       </c>
       <c r="I3">
-        <v>0.2316708169333521</v>
+        <v>0.1064107741026886</v>
       </c>
       <c r="J3">
-        <v>0.2976063026049867</v>
+        <v>0.1213845878939322</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>1.752090333333333</v>
+        <v>0.1000325</v>
       </c>
       <c r="N3">
-        <v>5.256271</v>
+        <v>0.200065</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.05246266723925631</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.03559762697907432</v>
       </c>
       <c r="Q3">
-        <v>0.6148271869302222</v>
+        <v>0.0071350181275</v>
       </c>
       <c r="R3">
-        <v>5.533444682372</v>
+        <v>0.042810108765</v>
       </c>
       <c r="S3">
-        <v>0.2316708169333521</v>
+        <v>0.005582593032421024</v>
       </c>
       <c r="T3">
-        <v>0.2976063026049867</v>
+        <v>0.00432100328085686</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -658,111 +655,235 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.0067545</v>
+        <v>0.3509106666666666</v>
       </c>
       <c r="H4">
-        <v>2.013509</v>
+        <v>1.052732</v>
       </c>
       <c r="I4">
-        <v>0.6646581583907257</v>
+        <v>0.5235138962929958</v>
       </c>
       <c r="J4">
-        <v>0.569217017010848</v>
+        <v>0.5971812449832231</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.752090333333333</v>
+        <v>1.806704333333333</v>
       </c>
       <c r="N4">
-        <v>5.256271</v>
+        <v>5.420113000000001</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9475373327607437</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9644023730209256</v>
       </c>
       <c r="Q4">
-        <v>1.763924827489833</v>
+        <v>0.6339918220795556</v>
       </c>
       <c r="R4">
-        <v>10.583548964939</v>
+        <v>5.705926398716</v>
       </c>
       <c r="S4">
-        <v>0.6646581583907257</v>
+        <v>0.4960489609566499</v>
       </c>
       <c r="T4">
-        <v>0.569217017010848</v>
+        <v>0.5759230097854111</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.3509106666666666</v>
+      </c>
+      <c r="H5">
+        <v>1.052732</v>
+      </c>
+      <c r="I5">
+        <v>0.5235138962929958</v>
+      </c>
+      <c r="J5">
+        <v>0.5971812449832231</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.1000325</v>
+      </c>
+      <c r="N5">
+        <v>0.200065</v>
+      </c>
+      <c r="O5">
+        <v>0.05246266723925631</v>
+      </c>
+      <c r="P5">
+        <v>0.03559762697907432</v>
+      </c>
+      <c r="Q5">
+        <v>0.03510247126333333</v>
+      </c>
+      <c r="R5">
+        <v>0.21061482758</v>
+      </c>
+      <c r="S5">
+        <v>0.02746493533634598</v>
+      </c>
+      <c r="T5">
+        <v>0.02125823519781198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.06966766666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.209003</v>
-      </c>
-      <c r="I5">
-        <v>0.0459945130873968</v>
-      </c>
-      <c r="J5">
-        <v>0.05908494285663401</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>1.752090333333333</v>
-      </c>
-      <c r="N5">
-        <v>5.256271</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.1220640453125556</v>
-      </c>
-      <c r="R5">
-        <v>1.098576407813</v>
-      </c>
-      <c r="S5">
-        <v>0.0459945130873968</v>
-      </c>
-      <c r="T5">
-        <v>0.05908494285663401</v>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.248061</v>
+      </c>
+      <c r="H6">
+        <v>0.496122</v>
+      </c>
+      <c r="I6">
+        <v>0.3700753296043157</v>
+      </c>
+      <c r="J6">
+        <v>0.2814341671228447</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.806704333333333</v>
+      </c>
+      <c r="N6">
+        <v>5.420113000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.9475373327607437</v>
+      </c>
+      <c r="P6">
+        <v>0.9644023730209256</v>
+      </c>
+      <c r="Q6">
+        <v>0.4481728836310001</v>
+      </c>
+      <c r="R6">
+        <v>2.689037301786001</v>
+      </c>
+      <c r="S6">
+        <v>0.3506601907338264</v>
+      </c>
+      <c r="T6">
+        <v>0.2714157786224392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.248061</v>
+      </c>
+      <c r="H7">
+        <v>0.496122</v>
+      </c>
+      <c r="I7">
+        <v>0.3700753296043157</v>
+      </c>
+      <c r="J7">
+        <v>0.2814341671228447</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.1000325</v>
+      </c>
+      <c r="N7">
+        <v>0.200065</v>
+      </c>
+      <c r="O7">
+        <v>0.05246266723925631</v>
+      </c>
+      <c r="P7">
+        <v>0.03559762697907432</v>
+      </c>
+      <c r="Q7">
+        <v>0.0248141619825</v>
+      </c>
+      <c r="R7">
+        <v>0.09925664793</v>
+      </c>
+      <c r="S7">
+        <v>0.01941513887048932</v>
+      </c>
+      <c r="T7">
+        <v>0.01001838850040549</v>
       </c>
     </row>
   </sheetData>
